--- a/aju.xlsx
+++ b/aju.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAIBHAV R. MADANE\OneDrive\Desktop\newGit\lala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B23E0-75EB-489C-9A12-55C72C2AE32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F85F83-98E8-4C15-ABC1-A630ACE61D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>ttt</t>
   </si>
   <si>
-    <t>ajinkya</t>
+    <t>bhaiyya</t>
   </si>
 </sst>
 </file>
